--- a/save.xlsx
+++ b/save.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2931978530144018</v>
+        <v>-0.3048259832759275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>X6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4635115119137637</v>
+        <v>0.2931978530144022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>X10</t>
+          <t>X8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5496117636165929</v>
+        <v>-0.7920805290628747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>X12</t>
+          <t>X9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3139113083443786</v>
+        <v>-0.4103134965339276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>X1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.3048259832759271</v>
+        <v>-0.3040581135412764</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>X4</t>
+          <t>X0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.2953638303690481</v>
+        <v>-0.4686970807949175</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>X9</t>
+          <t>X2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.410313496533927</v>
+        <v>-0.1137109842328968</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>X11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8833366584341269</v>
+        <v>0.03452857326377409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>X2</t>
+          <t>X13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.1137109842328974</v>
+        <v>-0.2660628287424565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>X13</t>
+          <t>X14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.2660628287424607</v>
+        <v>0.284213418976441</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>X11</t>
+          <t>X5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.03452857326377379</v>
+        <v>0.8833366584341261</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>X14</t>
+          <t>X12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.284213418976438</v>
+        <v>0.3139113083443796</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>X1</t>
+          <t>X10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.304058113541277</v>
+        <v>0.549611763616595</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>X8</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -657,13 +657,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.7920805290628767</v>
+        <v>0.4635115119137624</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>X0</t>
+          <t>X4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.468697080794917</v>
+        <v>-0.2953638303690486</v>
       </c>
     </row>
   </sheetData>
